--- a/back/public/reportes/reporte_venta.xlsx
+++ b/back/public/reportes/reporte_venta.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>CODIGO</t>
   </si>
@@ -46,13 +46,10 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>02/11/2025</t>
+    <t>19/11/2025</t>
   </si>
   <si>
-    <t>Adimer Paul Chambi Ajata</t>
-  </si>
-  <si>
-    <t>29/10/2025</t>
+    <t>Sin Nombre</t>
   </si>
 </sst>
 </file>
@@ -834,49 +831,33 @@
       <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="8">
+        <v>456</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2222</v>
+      </c>
       <c r="G7" s="9">
-        <v>170.0</v>
+        <v>15.0</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" customHeight="1" ht="27.95">
-      <c r="B8" s="6">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>10</v>
-      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="8"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="9">
-        <v>340.0</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" customHeight="1" ht="27.95">
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="8">
-        <v>23</v>
-      </c>
-      <c r="F9" s="6">
-        <v>232</v>
-      </c>
-      <c r="G9" s="9">
-        <v>23.0</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" customHeight="1" ht="27.95">
